--- a/data_year/zb/科技/国内外三种专利申请授权量.xlsx
+++ b/data_year/zb/科技/国内外三种专利申请授权量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,1913 +578,1137 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105345</v>
+        <v>814825</v>
       </c>
       <c r="C2" t="n">
-        <v>1016</v>
+        <v>40049</v>
       </c>
       <c r="D2" t="n">
-        <v>17482</v>
+        <v>135680</v>
       </c>
       <c r="E2" t="n">
-        <v>12821</v>
+        <v>183289</v>
       </c>
       <c r="F2" t="n">
-        <v>12683</v>
+        <v>135110</v>
       </c>
       <c r="G2" t="n">
-        <v>6177</v>
+        <v>79767</v>
       </c>
       <c r="H2" t="n">
-        <v>34652</v>
+        <v>318597</v>
       </c>
       <c r="I2" t="n">
-        <v>54407</v>
+        <v>342256</v>
       </c>
       <c r="J2" t="n">
-        <v>6506</v>
+        <v>55343</v>
       </c>
       <c r="K2" t="n">
-        <v>3267</v>
+        <v>16646</v>
       </c>
       <c r="L2" t="n">
-        <v>336</v>
+        <v>2216</v>
       </c>
       <c r="M2" t="n">
-        <v>37919</v>
+        <v>335243</v>
       </c>
       <c r="N2" t="n">
-        <v>652</v>
+        <v>19036</v>
       </c>
       <c r="O2" t="n">
-        <v>28</v>
+        <v>8115</v>
       </c>
       <c r="P2" t="n">
-        <v>868</v>
+        <v>16002</v>
       </c>
       <c r="Q2" t="n">
-        <v>54743</v>
+        <v>344472</v>
       </c>
       <c r="R2" t="n">
-        <v>246</v>
+        <v>507</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>1975</v>
       </c>
       <c r="T2" t="n">
-        <v>301</v>
+        <v>2910</v>
       </c>
       <c r="U2" t="n">
-        <v>910</v>
+        <v>6557</v>
       </c>
       <c r="V2" t="n">
-        <v>248</v>
+        <v>637</v>
       </c>
       <c r="W2" t="n">
-        <v>1529</v>
+        <v>7074</v>
       </c>
       <c r="X2" t="n">
-        <v>6222</v>
+        <v>54169</v>
       </c>
       <c r="Y2" t="n">
-        <v>3108</v>
+        <v>15851</v>
       </c>
       <c r="Z2" t="n">
-        <v>261</v>
+        <v>1903</v>
       </c>
       <c r="AA2" t="n">
-        <v>284</v>
+        <v>1174</v>
       </c>
       <c r="AB2" t="n">
-        <v>159</v>
+        <v>795</v>
       </c>
       <c r="AC2" t="n">
-        <v>75</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114251</v>
+        <v>960513</v>
       </c>
       <c r="C3" t="n">
-        <v>1089</v>
+        <v>58364</v>
       </c>
       <c r="D3" t="n">
-        <v>19015</v>
+        <v>179464</v>
       </c>
       <c r="E3" t="n">
-        <v>13783</v>
+        <v>236959</v>
       </c>
       <c r="F3" t="n">
-        <v>16296</v>
+        <v>172113</v>
       </c>
       <c r="G3" t="n">
-        <v>5395</v>
+        <v>112347</v>
       </c>
       <c r="H3" t="n">
-        <v>39865</v>
+        <v>366428</v>
       </c>
       <c r="I3" t="n">
-        <v>54018</v>
+        <v>405086</v>
       </c>
       <c r="J3" t="n">
-        <v>10901</v>
+        <v>59766</v>
       </c>
       <c r="K3" t="n">
-        <v>3731</v>
+        <v>13862</v>
       </c>
       <c r="L3" t="n">
-        <v>341</v>
+        <v>3024</v>
       </c>
       <c r="M3" t="n">
-        <v>43596</v>
+        <v>380290</v>
       </c>
       <c r="N3" t="n">
-        <v>579</v>
+        <v>26616</v>
       </c>
       <c r="O3" t="n">
-        <v>12</v>
+        <v>8678</v>
       </c>
       <c r="P3" t="n">
-        <v>943</v>
+        <v>21190</v>
       </c>
       <c r="Q3" t="n">
-        <v>54359</v>
+        <v>408110</v>
       </c>
       <c r="R3" t="n">
-        <v>146</v>
+        <v>851</v>
       </c>
       <c r="S3" t="n">
-        <v>38</v>
+        <v>4293</v>
       </c>
       <c r="T3" t="n">
-        <v>345</v>
+        <v>5180</v>
       </c>
       <c r="U3" t="n">
-        <v>800</v>
+        <v>9238</v>
       </c>
       <c r="V3" t="n">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="W3" t="n">
-        <v>1473</v>
+        <v>8016</v>
       </c>
       <c r="X3" t="n">
-        <v>10455</v>
+        <v>58541</v>
       </c>
       <c r="Y3" t="n">
-        <v>3567</v>
+        <v>13250</v>
       </c>
       <c r="Z3" t="n">
-        <v>241</v>
+        <v>2662</v>
       </c>
       <c r="AA3" t="n">
-        <v>446</v>
+        <v>1225</v>
       </c>
       <c r="AB3" t="n">
-        <v>164</v>
+        <v>612</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132399</v>
+        <v>1255138</v>
       </c>
       <c r="C4" t="n">
-        <v>1461</v>
+        <v>78651</v>
       </c>
       <c r="D4" t="n">
-        <v>19802</v>
+        <v>246879</v>
       </c>
       <c r="E4" t="n">
-        <v>15753</v>
+        <v>359990</v>
       </c>
       <c r="F4" t="n">
-        <v>21473</v>
+        <v>217105</v>
       </c>
       <c r="G4" t="n">
-        <v>5868</v>
+        <v>143847</v>
       </c>
       <c r="H4" t="n">
-        <v>49143</v>
+        <v>452629</v>
       </c>
       <c r="I4" t="n">
-        <v>57092</v>
+        <v>566750</v>
       </c>
       <c r="J4" t="n">
-        <v>15605</v>
+        <v>73258</v>
       </c>
       <c r="K4" t="n">
-        <v>4299</v>
+        <v>14229</v>
       </c>
       <c r="L4" t="n">
-        <v>392</v>
+        <v>4425</v>
       </c>
       <c r="M4" t="n">
-        <v>53442</v>
+        <v>466858</v>
       </c>
       <c r="N4" t="n">
-        <v>697</v>
+        <v>33821</v>
       </c>
       <c r="O4" t="n">
-        <v>40</v>
+        <v>10073</v>
       </c>
       <c r="P4" t="n">
-        <v>973</v>
+        <v>33389</v>
       </c>
       <c r="Q4" t="n">
-        <v>57484</v>
+        <v>571175</v>
       </c>
       <c r="R4" t="n">
-        <v>79</v>
+        <v>2234</v>
       </c>
       <c r="S4" t="n">
-        <v>38</v>
+        <v>4415</v>
       </c>
       <c r="T4" t="n">
-        <v>367</v>
+        <v>9630</v>
       </c>
       <c r="U4" t="n">
-        <v>907</v>
+        <v>11248</v>
       </c>
       <c r="V4" t="n">
-        <v>140</v>
+        <v>850</v>
       </c>
       <c r="W4" t="n">
-        <v>1276</v>
+        <v>7754</v>
       </c>
       <c r="X4" t="n">
-        <v>15013</v>
+        <v>71871</v>
       </c>
       <c r="Y4" t="n">
-        <v>4106</v>
+        <v>13608</v>
       </c>
       <c r="Z4" t="n">
-        <v>252</v>
+        <v>4085</v>
       </c>
       <c r="AA4" t="n">
-        <v>592</v>
+        <v>1387</v>
       </c>
       <c r="AB4" t="n">
-        <v>193</v>
+        <v>621</v>
       </c>
       <c r="AC4" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182226</v>
+        <v>1313000</v>
       </c>
       <c r="C5" t="n">
-        <v>3382</v>
+        <v>79439</v>
       </c>
       <c r="D5" t="n">
-        <v>31002</v>
+        <v>221575</v>
       </c>
       <c r="E5" t="n">
-        <v>20485</v>
+        <v>451662</v>
       </c>
       <c r="F5" t="n">
-        <v>37154</v>
+        <v>207688</v>
       </c>
       <c r="G5" t="n">
-        <v>11404</v>
+        <v>143535</v>
       </c>
       <c r="H5" t="n">
-        <v>69893</v>
+        <v>398670</v>
       </c>
       <c r="I5" t="n">
-        <v>68291</v>
+        <v>686208</v>
       </c>
       <c r="J5" t="n">
-        <v>25750</v>
+        <v>64153</v>
       </c>
       <c r="K5" t="n">
-        <v>6273</v>
+        <v>13797</v>
       </c>
       <c r="L5" t="n">
-        <v>615</v>
+        <v>6637</v>
       </c>
       <c r="M5" t="n">
-        <v>76166</v>
+        <v>412467</v>
       </c>
       <c r="N5" t="n">
-        <v>1730</v>
+        <v>33309</v>
       </c>
       <c r="O5" t="n">
-        <v>104</v>
+        <v>8644</v>
       </c>
       <c r="P5" t="n">
-        <v>1582</v>
+        <v>43085</v>
       </c>
       <c r="Q5" t="n">
-        <v>68906</v>
+        <v>692845</v>
       </c>
       <c r="R5" t="n">
-        <v>106</v>
+        <v>1828</v>
       </c>
       <c r="S5" t="n">
-        <v>89</v>
+        <v>2040</v>
       </c>
       <c r="T5" t="n">
-        <v>456</v>
+        <v>6137</v>
       </c>
       <c r="U5" t="n">
-        <v>1677</v>
+        <v>12284</v>
       </c>
       <c r="V5" t="n">
-        <v>270</v>
+        <v>1275</v>
       </c>
       <c r="W5" t="n">
-        <v>1485</v>
+        <v>11319</v>
       </c>
       <c r="X5" t="n">
-        <v>24849</v>
+        <v>62991</v>
       </c>
       <c r="Y5" t="n">
-        <v>6113</v>
+        <v>13116</v>
       </c>
       <c r="Z5" t="n">
-        <v>498</v>
+        <v>6233</v>
       </c>
       <c r="AA5" t="n">
-        <v>901</v>
+        <v>1162</v>
       </c>
       <c r="AB5" t="n">
-        <v>160</v>
+        <v>681</v>
       </c>
       <c r="AC5" t="n">
-        <v>117</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190238</v>
+        <v>1302687</v>
       </c>
       <c r="C6" t="n">
-        <v>6128</v>
+        <v>91874</v>
       </c>
       <c r="D6" t="n">
-        <v>23830</v>
+        <v>181188</v>
       </c>
       <c r="E6" t="n">
-        <v>22299</v>
+        <v>497268</v>
       </c>
       <c r="F6" t="n">
-        <v>49360</v>
+        <v>233228</v>
       </c>
       <c r="G6" t="n">
-        <v>18241</v>
+        <v>162680</v>
       </c>
       <c r="H6" t="n">
-        <v>63068</v>
+        <v>346751</v>
       </c>
       <c r="I6" t="n">
-        <v>70019</v>
+        <v>699971</v>
       </c>
       <c r="J6" t="n">
-        <v>31119</v>
+        <v>70548</v>
       </c>
       <c r="K6" t="n">
-        <v>7187</v>
+        <v>14825</v>
       </c>
       <c r="L6" t="n">
-        <v>604</v>
+        <v>7912</v>
       </c>
       <c r="M6" t="n">
-        <v>70255</v>
+        <v>361576</v>
       </c>
       <c r="N6" t="n">
-        <v>3484</v>
+        <v>38317</v>
       </c>
       <c r="O6" t="n">
-        <v>111</v>
+        <v>6571</v>
       </c>
       <c r="P6" t="n">
-        <v>1910</v>
+        <v>47600</v>
       </c>
       <c r="Q6" t="n">
-        <v>70623</v>
+        <v>707883</v>
       </c>
       <c r="R6" t="n">
-        <v>158</v>
+        <v>2408</v>
       </c>
       <c r="S6" t="n">
-        <v>56</v>
+        <v>682</v>
       </c>
       <c r="T6" t="n">
-        <v>452</v>
+        <v>6949</v>
       </c>
       <c r="U6" t="n">
-        <v>2406</v>
+        <v>13573</v>
       </c>
       <c r="V6" t="n">
-        <v>174</v>
+        <v>769</v>
       </c>
       <c r="W6" t="n">
-        <v>1557</v>
+        <v>12238</v>
       </c>
       <c r="X6" t="n">
-        <v>30089</v>
+        <v>69301</v>
       </c>
       <c r="Y6" t="n">
-        <v>6936</v>
+        <v>14021</v>
       </c>
       <c r="Z6" t="n">
-        <v>485</v>
+        <v>7451</v>
       </c>
       <c r="AA6" t="n">
-        <v>1030</v>
+        <v>1247</v>
       </c>
       <c r="AB6" t="n">
-        <v>251</v>
+        <v>804</v>
       </c>
       <c r="AC6" t="n">
-        <v>119</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214003</v>
+        <v>1718192</v>
       </c>
       <c r="C7" t="n">
-        <v>7712</v>
+        <v>158620</v>
       </c>
       <c r="D7" t="n">
-        <v>26658</v>
+        <v>237326</v>
       </c>
       <c r="E7" t="n">
-        <v>24743</v>
+        <v>592771</v>
       </c>
       <c r="F7" t="n">
-        <v>53305</v>
+        <v>359316</v>
       </c>
       <c r="G7" t="n">
-        <v>20705</v>
+        <v>263436</v>
       </c>
       <c r="H7" t="n">
-        <v>72777</v>
+        <v>464807</v>
       </c>
       <c r="I7" t="n">
-        <v>78137</v>
+        <v>868734</v>
       </c>
       <c r="J7" t="n">
-        <v>32600</v>
+        <v>95880</v>
       </c>
       <c r="K7" t="n">
-        <v>8572</v>
+        <v>17852</v>
       </c>
       <c r="L7" t="n">
-        <v>1212</v>
+        <v>7483</v>
       </c>
       <c r="M7" t="n">
-        <v>81349</v>
+        <v>482659</v>
       </c>
       <c r="N7" t="n">
-        <v>4453</v>
+        <v>57196</v>
       </c>
       <c r="O7" t="n">
-        <v>555</v>
+        <v>10311</v>
       </c>
       <c r="P7" t="n">
-        <v>2391</v>
+        <v>68827</v>
       </c>
       <c r="Q7" t="n">
-        <v>79349</v>
+        <v>876217</v>
       </c>
       <c r="R7" t="n">
-        <v>173</v>
+        <v>3759</v>
       </c>
       <c r="S7" t="n">
-        <v>183</v>
+        <v>1173</v>
       </c>
       <c r="T7" t="n">
-        <v>458</v>
+        <v>12094</v>
       </c>
       <c r="U7" t="n">
-        <v>2423</v>
+        <v>19243</v>
       </c>
       <c r="V7" t="n">
-        <v>170</v>
+        <v>728</v>
       </c>
       <c r="W7" t="n">
-        <v>1599</v>
+        <v>13680</v>
       </c>
       <c r="X7" t="n">
-        <v>31555</v>
+        <v>94325</v>
       </c>
       <c r="Y7" t="n">
-        <v>8254</v>
+        <v>16878</v>
       </c>
       <c r="Z7" t="n">
-        <v>1011</v>
+        <v>7030</v>
       </c>
       <c r="AA7" t="n">
-        <v>1045</v>
+        <v>1555</v>
       </c>
       <c r="AB7" t="n">
-        <v>318</v>
+        <v>974</v>
       </c>
       <c r="AC7" t="n">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268002</v>
+        <v>1753763</v>
       </c>
       <c r="C8" t="n">
-        <v>9433</v>
+        <v>189564</v>
       </c>
       <c r="D8" t="n">
-        <v>31279</v>
+        <v>209495</v>
       </c>
       <c r="E8" t="n">
-        <v>35667</v>
+        <v>631299</v>
       </c>
       <c r="F8" t="n">
-        <v>57786</v>
+        <v>404208</v>
       </c>
       <c r="G8" t="n">
-        <v>25077</v>
+        <v>302136</v>
       </c>
       <c r="H8" t="n">
-        <v>92471</v>
+        <v>429710</v>
       </c>
       <c r="I8" t="n">
-        <v>106312</v>
+        <v>897035</v>
       </c>
       <c r="J8" t="n">
-        <v>32709</v>
+        <v>102072</v>
       </c>
       <c r="K8" t="n">
-        <v>10090</v>
+        <v>16425</v>
       </c>
       <c r="L8" t="n">
-        <v>1343</v>
+        <v>6385</v>
       </c>
       <c r="M8" t="n">
-        <v>102561</v>
+        <v>446135</v>
       </c>
       <c r="N8" t="n">
-        <v>6198</v>
+        <v>62311</v>
       </c>
       <c r="O8" t="n">
-        <v>806</v>
+        <v>10283</v>
       </c>
       <c r="P8" t="n">
-        <v>3453</v>
+        <v>77166</v>
       </c>
       <c r="Q8" t="n">
-        <v>107655</v>
+        <v>903420</v>
       </c>
       <c r="R8" t="n">
-        <v>216</v>
+        <v>4023</v>
       </c>
       <c r="S8" t="n">
-        <v>112</v>
+        <v>952</v>
       </c>
       <c r="T8" t="n">
-        <v>654</v>
+        <v>12512</v>
       </c>
       <c r="U8" t="n">
-        <v>2553</v>
+        <v>20109</v>
       </c>
       <c r="V8" t="n">
-        <v>276</v>
+        <v>903</v>
       </c>
       <c r="W8" t="n">
-        <v>2484</v>
+        <v>13908</v>
       </c>
       <c r="X8" t="n">
-        <v>31757</v>
+        <v>100466</v>
       </c>
       <c r="Y8" t="n">
-        <v>9630</v>
+        <v>15566</v>
       </c>
       <c r="Z8" t="n">
-        <v>1079</v>
+        <v>5962</v>
       </c>
       <c r="AA8" t="n">
-        <v>952</v>
+        <v>1606</v>
       </c>
       <c r="AB8" t="n">
-        <v>460</v>
+        <v>859</v>
       </c>
       <c r="AC8" t="n">
-        <v>264</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>351782</v>
+        <v>1836434</v>
       </c>
       <c r="C9" t="n">
-        <v>12851</v>
+        <v>200804</v>
       </c>
       <c r="D9" t="n">
-        <v>42515</v>
+        <v>222582</v>
       </c>
       <c r="E9" t="n">
-        <v>53451</v>
+        <v>713043</v>
       </c>
       <c r="F9" t="n">
-        <v>67948</v>
+        <v>420144</v>
       </c>
       <c r="G9" t="n">
-        <v>31945</v>
+        <v>326970</v>
       </c>
       <c r="H9" t="n">
-        <v>121296</v>
+        <v>426442</v>
       </c>
       <c r="I9" t="n">
-        <v>148391</v>
+        <v>967416</v>
       </c>
       <c r="J9" t="n">
-        <v>36003</v>
+        <v>93174</v>
       </c>
       <c r="K9" t="n">
-        <v>12502</v>
+        <v>16554</v>
       </c>
       <c r="L9" t="n">
-        <v>1645</v>
+        <v>5878</v>
       </c>
       <c r="M9" t="n">
-        <v>133798</v>
+        <v>442996</v>
       </c>
       <c r="N9" t="n">
-        <v>8214</v>
+        <v>75693</v>
       </c>
       <c r="O9" t="n">
-        <v>1057</v>
+        <v>11231</v>
       </c>
       <c r="P9" t="n">
-        <v>5502</v>
+        <v>83497</v>
       </c>
       <c r="Q9" t="n">
-        <v>150036</v>
+        <v>973294</v>
       </c>
       <c r="R9" t="n">
-        <v>250</v>
+        <v>4711</v>
       </c>
       <c r="S9" t="n">
-        <v>2494</v>
+        <v>888</v>
       </c>
       <c r="T9" t="n">
-        <v>921</v>
+        <v>13969</v>
       </c>
       <c r="U9" t="n">
-        <v>3173</v>
+        <v>22369</v>
       </c>
       <c r="V9" t="n">
-        <v>284</v>
+        <v>819</v>
       </c>
       <c r="W9" t="n">
-        <v>3101</v>
+        <v>14617</v>
       </c>
       <c r="X9" t="n">
-        <v>35132</v>
+        <v>91817</v>
       </c>
       <c r="Y9" t="n">
-        <v>12053</v>
+        <v>15575</v>
       </c>
       <c r="Z9" t="n">
-        <v>1342</v>
+        <v>5434</v>
       </c>
       <c r="AA9" t="n">
-        <v>871</v>
+        <v>1357</v>
       </c>
       <c r="AB9" t="n">
-        <v>449</v>
+        <v>979</v>
       </c>
       <c r="AC9" t="n">
-        <v>303</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411982</v>
+        <v>2447460</v>
       </c>
       <c r="C10" t="n">
-        <v>22493</v>
+        <v>222287</v>
       </c>
       <c r="D10" t="n">
-        <v>45802</v>
+        <v>288903</v>
       </c>
       <c r="E10" t="n">
-        <v>70242</v>
+        <v>1143867</v>
       </c>
       <c r="F10" t="n">
-        <v>93706</v>
+        <v>432147</v>
       </c>
       <c r="G10" t="n">
-        <v>46590</v>
+        <v>345959</v>
       </c>
       <c r="H10" t="n">
-        <v>130647</v>
+        <v>517693</v>
       </c>
       <c r="I10" t="n">
-        <v>175169</v>
+        <v>1471759</v>
       </c>
       <c r="J10" t="n">
-        <v>47116</v>
+        <v>86188</v>
       </c>
       <c r="K10" t="n">
-        <v>10954</v>
+        <v>18558</v>
       </c>
       <c r="L10" t="n">
-        <v>1506</v>
+        <v>7303</v>
       </c>
       <c r="M10" t="n">
-        <v>141601</v>
+        <v>536251</v>
       </c>
       <c r="N10" t="n">
-        <v>10265</v>
+        <v>74893</v>
       </c>
       <c r="O10" t="n">
-        <v>1652</v>
+        <v>15436</v>
       </c>
       <c r="P10" t="n">
-        <v>7242</v>
+        <v>103671</v>
       </c>
       <c r="Q10" t="n">
-        <v>176675</v>
+        <v>1479062</v>
       </c>
       <c r="R10" t="n">
-        <v>252</v>
+        <v>5088</v>
       </c>
       <c r="S10" t="n">
-        <v>1683</v>
+        <v>1444</v>
       </c>
       <c r="T10" t="n">
-        <v>1269</v>
+        <v>18199</v>
       </c>
       <c r="U10" t="n">
-        <v>3945</v>
+        <v>20508</v>
       </c>
       <c r="V10" t="n">
-        <v>238</v>
+        <v>1046</v>
       </c>
       <c r="W10" t="n">
-        <v>4161</v>
+        <v>18773</v>
       </c>
       <c r="X10" t="n">
-        <v>46112</v>
+        <v>85021</v>
       </c>
       <c r="Y10" t="n">
-        <v>10598</v>
+        <v>17708</v>
       </c>
       <c r="Z10" t="n">
-        <v>1179</v>
+        <v>6835</v>
       </c>
       <c r="AA10" t="n">
-        <v>1004</v>
+        <v>1167</v>
       </c>
       <c r="AB10" t="n">
-        <v>356</v>
+        <v>850</v>
       </c>
       <c r="AC10" t="n">
-        <v>327</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>581992</v>
+        <v>2591607</v>
       </c>
       <c r="C11" t="n">
-        <v>32160</v>
+        <v>222439</v>
       </c>
       <c r="D11" t="n">
-        <v>90754</v>
+        <v>300602</v>
       </c>
       <c r="E11" t="n">
-        <v>95407</v>
+        <v>1234065</v>
       </c>
       <c r="F11" t="n">
-        <v>128489</v>
+        <v>452804</v>
       </c>
       <c r="G11" t="n">
-        <v>65391</v>
+        <v>360919</v>
       </c>
       <c r="H11" t="n">
-        <v>234282</v>
+        <v>539282</v>
       </c>
       <c r="I11" t="n">
-        <v>202113</v>
+        <v>1574205</v>
       </c>
       <c r="J11" t="n">
-        <v>63098</v>
+        <v>91885</v>
       </c>
       <c r="K11" t="n">
-        <v>15419</v>
+        <v>17247</v>
       </c>
       <c r="L11" t="n">
-        <v>1689</v>
+        <v>8069</v>
       </c>
       <c r="M11" t="n">
-        <v>249701</v>
+        <v>556529</v>
       </c>
       <c r="N11" t="n">
-        <v>14391</v>
+        <v>91188</v>
       </c>
       <c r="O11" t="n">
-        <v>4390</v>
+        <v>20050</v>
       </c>
       <c r="P11" t="n">
-        <v>9166</v>
+        <v>106453</v>
       </c>
       <c r="Q11" t="n">
-        <v>203802</v>
+        <v>1582274</v>
       </c>
       <c r="R11" t="n">
-        <v>415</v>
+        <v>3936</v>
       </c>
       <c r="S11" t="n">
-        <v>3721</v>
+        <v>2472</v>
       </c>
       <c r="T11" t="n">
-        <v>1549</v>
+        <v>39504</v>
       </c>
       <c r="U11" t="n">
-        <v>5299</v>
+        <v>26798</v>
       </c>
       <c r="V11" t="n">
-        <v>467</v>
+        <v>1121</v>
       </c>
       <c r="W11" t="n">
-        <v>4503</v>
+        <v>20967</v>
       </c>
       <c r="X11" t="n">
-        <v>61422</v>
+        <v>90647</v>
       </c>
       <c r="Y11" t="n">
-        <v>14852</v>
+        <v>16297</v>
       </c>
       <c r="Z11" t="n">
-        <v>1400</v>
+        <v>7617</v>
       </c>
       <c r="AA11" t="n">
-        <v>1676</v>
+        <v>1238</v>
       </c>
       <c r="AB11" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="AC11" t="n">
-        <v>289</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814825</v>
+        <v>3639268</v>
       </c>
       <c r="C12" t="n">
-        <v>40049</v>
+        <v>268366</v>
       </c>
       <c r="D12" t="n">
-        <v>135680</v>
+        <v>395975</v>
       </c>
       <c r="E12" t="n">
-        <v>183289</v>
+        <v>1822840</v>
       </c>
       <c r="F12" t="n">
-        <v>135110</v>
+        <v>530127</v>
       </c>
       <c r="G12" t="n">
-        <v>79767</v>
+        <v>440691</v>
       </c>
       <c r="H12" t="n">
-        <v>318597</v>
+        <v>711559</v>
       </c>
       <c r="I12" t="n">
-        <v>342256</v>
+        <v>2368651</v>
       </c>
       <c r="J12" t="n">
-        <v>55343</v>
+        <v>89436</v>
       </c>
       <c r="K12" t="n">
-        <v>16646</v>
+        <v>20359</v>
       </c>
       <c r="L12" t="n">
-        <v>2216</v>
+        <v>8572</v>
       </c>
       <c r="M12" t="n">
-        <v>335243</v>
+        <v>731918</v>
       </c>
       <c r="N12" t="n">
-        <v>19036</v>
+        <v>118675</v>
       </c>
       <c r="O12" t="n">
-        <v>8115</v>
+        <v>22381</v>
       </c>
       <c r="P12" t="n">
-        <v>16002</v>
+        <v>162615</v>
       </c>
       <c r="Q12" t="n">
-        <v>344472</v>
+        <v>2377223</v>
       </c>
       <c r="R12" t="n">
-        <v>507</v>
+        <v>5377</v>
       </c>
       <c r="S12" t="n">
-        <v>1975</v>
+        <v>2545</v>
       </c>
       <c r="T12" t="n">
-        <v>2910</v>
+        <v>49849</v>
       </c>
       <c r="U12" t="n">
-        <v>6557</v>
+        <v>31349</v>
       </c>
       <c r="V12" t="n">
-        <v>637</v>
+        <v>1493</v>
       </c>
       <c r="W12" t="n">
-        <v>7074</v>
+        <v>26134</v>
       </c>
       <c r="X12" t="n">
-        <v>54169</v>
+        <v>88230</v>
       </c>
       <c r="Y12" t="n">
-        <v>15851</v>
+        <v>19337</v>
       </c>
       <c r="Z12" t="n">
-        <v>1903</v>
+        <v>7979</v>
       </c>
       <c r="AA12" t="n">
-        <v>1174</v>
+        <v>1206</v>
       </c>
       <c r="AB12" t="n">
-        <v>795</v>
+        <v>1022</v>
       </c>
       <c r="AC12" t="n">
-        <v>313</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>960513</v>
+        <v>4601457</v>
       </c>
       <c r="C13" t="n">
-        <v>58364</v>
+        <v>370946</v>
       </c>
       <c r="D13" t="n">
-        <v>179464</v>
+        <v>443551</v>
       </c>
       <c r="E13" t="n">
-        <v>236959</v>
+        <v>2446252</v>
       </c>
       <c r="F13" t="n">
-        <v>172113</v>
+        <v>695946</v>
       </c>
       <c r="G13" t="n">
-        <v>112347</v>
+        <v>585910</v>
       </c>
       <c r="H13" t="n">
-        <v>366428</v>
+        <v>768460</v>
       </c>
       <c r="I13" t="n">
-        <v>405086</v>
+        <v>3112795</v>
       </c>
       <c r="J13" t="n">
-        <v>59766</v>
+        <v>110036</v>
       </c>
       <c r="K13" t="n">
-        <v>13862</v>
+        <v>17061</v>
       </c>
       <c r="L13" t="n">
-        <v>3024</v>
+        <v>7195</v>
       </c>
       <c r="M13" t="n">
-        <v>380290</v>
+        <v>785521</v>
       </c>
       <c r="N13" t="n">
-        <v>26616</v>
+        <v>146439</v>
       </c>
       <c r="O13" t="n">
-        <v>8678</v>
+        <v>20945</v>
       </c>
       <c r="P13" t="n">
-        <v>21190</v>
+        <v>189420</v>
       </c>
       <c r="Q13" t="n">
-        <v>408110</v>
+        <v>3119990</v>
       </c>
       <c r="R13" t="n">
-        <v>851</v>
+        <v>7115</v>
       </c>
       <c r="S13" t="n">
-        <v>4293</v>
+        <v>2331</v>
       </c>
       <c r="T13" t="n">
-        <v>5180</v>
+        <v>77218</v>
       </c>
       <c r="U13" t="n">
-        <v>9238</v>
+        <v>40587</v>
       </c>
       <c r="V13" t="n">
-        <v>523</v>
+        <v>1543</v>
       </c>
       <c r="W13" t="n">
-        <v>8016</v>
+        <v>30772</v>
       </c>
       <c r="X13" t="n">
-        <v>58541</v>
+        <v>108436</v>
       </c>
       <c r="Y13" t="n">
-        <v>13250</v>
+        <v>16144</v>
       </c>
       <c r="Z13" t="n">
-        <v>2662</v>
+        <v>6756</v>
       </c>
       <c r="AA13" t="n">
-        <v>1225</v>
+        <v>1600</v>
       </c>
       <c r="AB13" t="n">
-        <v>612</v>
+        <v>917</v>
       </c>
       <c r="AC13" t="n">
-        <v>362</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1255138</v>
-      </c>
-      <c r="C14" t="n">
-        <v>78651</v>
-      </c>
-      <c r="D14" t="n">
-        <v>246879</v>
-      </c>
-      <c r="E14" t="n">
-        <v>359990</v>
-      </c>
+        <v>4323000</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>217105</v>
+        <v>798000</v>
       </c>
       <c r="G14" t="n">
-        <v>143847</v>
-      </c>
-      <c r="H14" t="n">
-        <v>452629</v>
-      </c>
-      <c r="I14" t="n">
-        <v>566750</v>
-      </c>
+        <v>696000</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>73258</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14229</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4425</v>
-      </c>
-      <c r="M14" t="n">
-        <v>466858</v>
-      </c>
-      <c r="N14" t="n">
-        <v>33821</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10073</v>
-      </c>
-      <c r="P14" t="n">
-        <v>33389</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>571175</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2234</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4415</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9630</v>
-      </c>
-      <c r="U14" t="n">
-        <v>11248</v>
-      </c>
-      <c r="V14" t="n">
-        <v>850</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7754</v>
-      </c>
-      <c r="X14" t="n">
-        <v>71871</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13608</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1387</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>621</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1313000</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79439</v>
-      </c>
-      <c r="D15" t="n">
-        <v>221575</v>
-      </c>
-      <c r="E15" t="n">
-        <v>451662</v>
-      </c>
-      <c r="F15" t="n">
-        <v>207688</v>
-      </c>
-      <c r="G15" t="n">
-        <v>143535</v>
-      </c>
-      <c r="H15" t="n">
-        <v>398670</v>
-      </c>
-      <c r="I15" t="n">
-        <v>686208</v>
-      </c>
-      <c r="J15" t="n">
-        <v>64153</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13797</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6637</v>
-      </c>
-      <c r="M15" t="n">
-        <v>412467</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33309</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8644</v>
-      </c>
-      <c r="P15" t="n">
-        <v>43085</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>692845</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1828</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2040</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6137</v>
-      </c>
-      <c r="U15" t="n">
-        <v>12284</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1275</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11319</v>
-      </c>
-      <c r="X15" t="n">
-        <v>62991</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>13116</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6233</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1162</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>681</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1302687</v>
-      </c>
-      <c r="C16" t="n">
-        <v>91874</v>
-      </c>
-      <c r="D16" t="n">
-        <v>181188</v>
-      </c>
-      <c r="E16" t="n">
-        <v>497268</v>
-      </c>
-      <c r="F16" t="n">
-        <v>233228</v>
-      </c>
-      <c r="G16" t="n">
-        <v>162680</v>
-      </c>
-      <c r="H16" t="n">
-        <v>346751</v>
-      </c>
-      <c r="I16" t="n">
-        <v>699971</v>
-      </c>
-      <c r="J16" t="n">
-        <v>70548</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14825</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7912</v>
-      </c>
-      <c r="M16" t="n">
-        <v>361576</v>
-      </c>
-      <c r="N16" t="n">
-        <v>38317</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6571</v>
-      </c>
-      <c r="P16" t="n">
-        <v>47600</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>707883</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2408</v>
-      </c>
-      <c r="S16" t="n">
-        <v>682</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6949</v>
-      </c>
-      <c r="U16" t="n">
-        <v>13573</v>
-      </c>
-      <c r="V16" t="n">
-        <v>769</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12238</v>
-      </c>
-      <c r="X16" t="n">
-        <v>69301</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>14021</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7451</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1247</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>804</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1718192</v>
-      </c>
-      <c r="C17" t="n">
-        <v>158620</v>
-      </c>
-      <c r="D17" t="n">
-        <v>237326</v>
-      </c>
-      <c r="E17" t="n">
-        <v>592771</v>
-      </c>
-      <c r="F17" t="n">
-        <v>359316</v>
-      </c>
-      <c r="G17" t="n">
-        <v>263436</v>
-      </c>
-      <c r="H17" t="n">
-        <v>464807</v>
-      </c>
-      <c r="I17" t="n">
-        <v>868734</v>
-      </c>
-      <c r="J17" t="n">
-        <v>95880</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17852</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7483</v>
-      </c>
-      <c r="M17" t="n">
-        <v>482659</v>
-      </c>
-      <c r="N17" t="n">
-        <v>57196</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10311</v>
-      </c>
-      <c r="P17" t="n">
-        <v>68827</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>876217</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3759</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1173</v>
-      </c>
-      <c r="T17" t="n">
-        <v>12094</v>
-      </c>
-      <c r="U17" t="n">
-        <v>19243</v>
-      </c>
-      <c r="V17" t="n">
-        <v>728</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13680</v>
-      </c>
-      <c r="X17" t="n">
-        <v>94325</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16878</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7030</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1555</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>974</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1753763</v>
-      </c>
-      <c r="C18" t="n">
-        <v>189564</v>
-      </c>
-      <c r="D18" t="n">
-        <v>209495</v>
-      </c>
-      <c r="E18" t="n">
-        <v>631299</v>
-      </c>
-      <c r="F18" t="n">
-        <v>404208</v>
-      </c>
-      <c r="G18" t="n">
-        <v>302136</v>
-      </c>
-      <c r="H18" t="n">
-        <v>429710</v>
-      </c>
-      <c r="I18" t="n">
-        <v>897035</v>
-      </c>
-      <c r="J18" t="n">
-        <v>102072</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16425</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6385</v>
-      </c>
-      <c r="M18" t="n">
-        <v>446135</v>
-      </c>
-      <c r="N18" t="n">
-        <v>62311</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10283</v>
-      </c>
-      <c r="P18" t="n">
-        <v>77166</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>903420</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4023</v>
-      </c>
-      <c r="S18" t="n">
-        <v>952</v>
-      </c>
-      <c r="T18" t="n">
-        <v>12512</v>
-      </c>
-      <c r="U18" t="n">
-        <v>20109</v>
-      </c>
-      <c r="V18" t="n">
-        <v>903</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13908</v>
-      </c>
-      <c r="X18" t="n">
-        <v>100466</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>15566</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>5962</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1606</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>859</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1836434</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200804</v>
-      </c>
-      <c r="D19" t="n">
-        <v>222582</v>
-      </c>
-      <c r="E19" t="n">
-        <v>713043</v>
-      </c>
-      <c r="F19" t="n">
-        <v>420144</v>
-      </c>
-      <c r="G19" t="n">
-        <v>326970</v>
-      </c>
-      <c r="H19" t="n">
-        <v>426442</v>
-      </c>
-      <c r="I19" t="n">
-        <v>967416</v>
-      </c>
-      <c r="J19" t="n">
-        <v>93174</v>
-      </c>
-      <c r="K19" t="n">
-        <v>16554</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5878</v>
-      </c>
-      <c r="M19" t="n">
-        <v>442996</v>
-      </c>
-      <c r="N19" t="n">
-        <v>75693</v>
-      </c>
-      <c r="O19" t="n">
-        <v>11231</v>
-      </c>
-      <c r="P19" t="n">
-        <v>83497</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>973294</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4711</v>
-      </c>
-      <c r="S19" t="n">
-        <v>888</v>
-      </c>
-      <c r="T19" t="n">
-        <v>13969</v>
-      </c>
-      <c r="U19" t="n">
-        <v>22369</v>
-      </c>
-      <c r="V19" t="n">
-        <v>819</v>
-      </c>
-      <c r="W19" t="n">
-        <v>14617</v>
-      </c>
-      <c r="X19" t="n">
-        <v>91817</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>15575</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>5434</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1357</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>979</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2447460</v>
-      </c>
-      <c r="C20" t="n">
-        <v>222287</v>
-      </c>
-      <c r="D20" t="n">
-        <v>288903</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1143867</v>
-      </c>
-      <c r="F20" t="n">
-        <v>432147</v>
-      </c>
-      <c r="G20" t="n">
-        <v>345959</v>
-      </c>
-      <c r="H20" t="n">
-        <v>517693</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1471759</v>
-      </c>
-      <c r="J20" t="n">
-        <v>86188</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18558</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7303</v>
-      </c>
-      <c r="M20" t="n">
-        <v>536251</v>
-      </c>
-      <c r="N20" t="n">
-        <v>74893</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15436</v>
-      </c>
-      <c r="P20" t="n">
-        <v>103671</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1479062</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5088</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1444</v>
-      </c>
-      <c r="T20" t="n">
-        <v>18199</v>
-      </c>
-      <c r="U20" t="n">
-        <v>20508</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1046</v>
-      </c>
-      <c r="W20" t="n">
-        <v>18773</v>
-      </c>
-      <c r="X20" t="n">
-        <v>85021</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>17708</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6835</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1167</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>850</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2591607</v>
-      </c>
-      <c r="C21" t="n">
-        <v>222439</v>
-      </c>
-      <c r="D21" t="n">
-        <v>300602</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1234065</v>
-      </c>
-      <c r="F21" t="n">
-        <v>452804</v>
-      </c>
-      <c r="G21" t="n">
-        <v>360919</v>
-      </c>
-      <c r="H21" t="n">
-        <v>539282</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1574205</v>
-      </c>
-      <c r="J21" t="n">
-        <v>91885</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17247</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8069</v>
-      </c>
-      <c r="M21" t="n">
-        <v>556529</v>
-      </c>
-      <c r="N21" t="n">
-        <v>91188</v>
-      </c>
-      <c r="O21" t="n">
-        <v>20050</v>
-      </c>
-      <c r="P21" t="n">
-        <v>106453</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1582274</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3936</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2472</v>
-      </c>
-      <c r="T21" t="n">
-        <v>39504</v>
-      </c>
-      <c r="U21" t="n">
-        <v>26798</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1121</v>
-      </c>
-      <c r="W21" t="n">
-        <v>20967</v>
-      </c>
-      <c r="X21" t="n">
-        <v>90647</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>16297</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>7617</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1238</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>950</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3639268</v>
-      </c>
-      <c r="C22" t="n">
-        <v>268366</v>
-      </c>
-      <c r="D22" t="n">
-        <v>395975</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1822840</v>
-      </c>
-      <c r="F22" t="n">
-        <v>530127</v>
-      </c>
-      <c r="G22" t="n">
-        <v>440691</v>
-      </c>
-      <c r="H22" t="n">
-        <v>711559</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2368651</v>
-      </c>
-      <c r="J22" t="n">
-        <v>89436</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20359</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8572</v>
-      </c>
-      <c r="M22" t="n">
-        <v>731918</v>
-      </c>
-      <c r="N22" t="n">
-        <v>118675</v>
-      </c>
-      <c r="O22" t="n">
-        <v>22381</v>
-      </c>
-      <c r="P22" t="n">
-        <v>162615</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2377223</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5377</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2545</v>
-      </c>
-      <c r="T22" t="n">
-        <v>49849</v>
-      </c>
-      <c r="U22" t="n">
-        <v>31349</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1493</v>
-      </c>
-      <c r="W22" t="n">
-        <v>26134</v>
-      </c>
-      <c r="X22" t="n">
-        <v>88230</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>19337</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7979</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1206</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1022</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>593</v>
-      </c>
+        <v>103000</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
